--- a/Properties/Properties_Carbon_PEEK.xlsx
+++ b/Properties/Properties_Carbon_PEEK.xlsx
@@ -1,26 +1,126 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\temp\DirectFE2\CODE\Properties\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5D7422E-ED54-4799-92AE-B5373BB0B459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="E11 and Poison ratio" sheetId="1" r:id="rId1"/>
+    <sheet name="E22 and Poison ratio" sheetId="2" r:id="rId2"/>
+    <sheet name="Conductivity" sheetId="3" r:id="rId3"/>
+    <sheet name="Specific heat" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+  <si>
+    <t>Direct FE2</t>
+  </si>
+  <si>
+    <t>Force (N)</t>
+  </si>
+  <si>
+    <t>RVE13</t>
+  </si>
+  <si>
+    <t>E11 (MPa)</t>
+  </si>
+  <si>
+    <t>X_Displacement (mm)</t>
+  </si>
+  <si>
+    <t>Y_Displacement (mm)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>v12</t>
+  </si>
+  <si>
+    <t>RVE23</t>
+  </si>
+  <si>
+    <t>2_Displacement (mm)</t>
+  </si>
+  <si>
+    <t>3_Displacement (mm)</t>
+  </si>
+  <si>
+    <t>v23</t>
+  </si>
+  <si>
+    <t>E22, E33 (Pa)</t>
+  </si>
+  <si>
+    <t>RVE 1-2</t>
+  </si>
+  <si>
+    <t>RVE 2-3</t>
+  </si>
+  <si>
+    <t>Q (W/m^2)</t>
+  </si>
+  <si>
+    <t>dT/dy (Celcius/m)</t>
+  </si>
+  <si>
+    <t>dT/dx (Celcius/m)</t>
+  </si>
+  <si>
+    <t>ky (W/C*m)</t>
+  </si>
+  <si>
+    <t>kx (W/C*m)</t>
+  </si>
+  <si>
+    <t>time (s)</t>
+  </si>
+  <si>
+    <t>Density (kg/m^3)</t>
+  </si>
+  <si>
+    <t>Thickness (m)</t>
+  </si>
+  <si>
+    <t>Delta T</t>
+  </si>
+  <si>
+    <t>Cp</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,13 +128,47 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="TH Sarabun New"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="TH Sarabun New"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -46,13 +180,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="40% - Accent6" xfId="1" builtinId="51"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -330,13 +474,367 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="24" x14ac:dyDescent="0.8"/>
+  <cols>
+    <col min="1" max="1" width="20.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.7265625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3">
+        <f>2.433*10^-3</f>
+        <v>2.4329999999999998E-3</v>
+      </c>
+      <c r="C3" s="1">
+        <f>7.799*10^-4</f>
+        <v>7.7990000000000004E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="3">
+        <f>-3.494*10^-4</f>
+        <v>-3.4940000000000004E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4">
+        <f>(B2/(20*10^-6))/(B3/50)</f>
+        <v>10275380189.066998</v>
+      </c>
+      <c r="C5" s="4">
+        <f>(C2/(50*10^-6))/(C3/20)</f>
+        <v>5128862674.7018852</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1">
+        <f>-B4/B3</f>
+        <v>0.14360871352240034</v>
+      </c>
+    </row>
+    <row r="1048576" spans="1:1" x14ac:dyDescent="0.8">
+      <c r="A1048576" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99FB0881-37E0-442D-A069-73296FA18B4B}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="24" x14ac:dyDescent="0.8"/>
+  <cols>
+    <col min="1" max="1" width="20.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="8.7265625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.8">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.8">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.8">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="3">
+        <f>5.088*10^-3</f>
+        <v>5.0880000000000005E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.8">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="3">
+        <f>-7.698*10^-4</f>
+        <v>-7.6980000000000006E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.8">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="4">
+        <f>(B2/(20*10^-6))/(B3/50)</f>
+        <v>4913522012.5786161</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.8">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1">
+        <f>-B4/B3</f>
+        <v>0.15129716981132074</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91DF125F-9726-449B-B6D3-F720B5239E8D}">
+  <dimension ref="B3:J6"/>
+  <sheetViews>
+    <sheetView zoomScale="117" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4">
+        <v>1000</v>
+      </c>
+      <c r="D4">
+        <v>1000</v>
+      </c>
+      <c r="H4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4">
+        <v>1000</v>
+      </c>
+      <c r="J4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5">
+        <f>(117.305-25)/(20*10^-3)</f>
+        <v>4615.25</v>
+      </c>
+      <c r="D5">
+        <f>(110-25)/(20*10^-3)</f>
+        <v>4250</v>
+      </c>
+      <c r="H5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5">
+        <f>(108.727-25)/(20*10^-3)</f>
+        <v>4186.3500000000004</v>
+      </c>
+      <c r="J5">
+        <f>(110-25)/(20*10^-3)</f>
+        <v>4250</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6">
+        <f>C4/C5</f>
+        <v>0.21667298629543361</v>
+      </c>
+      <c r="D6">
+        <f>D4/D5</f>
+        <v>0.23529411764705882</v>
+      </c>
+      <c r="H6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6">
+        <f>I4/I5</f>
+        <v>0.23887157070001311</v>
+      </c>
+      <c r="J6">
+        <f>J4/J5</f>
+        <v>0.23529411764705882</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02966E0F-EC2B-4B1F-A909-B0E2D945FBC0}">
+  <dimension ref="B3:D9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="15.08984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4">
+        <v>1000</v>
+      </c>
+      <c r="D4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6">
+        <v>1292</v>
+      </c>
+      <c r="D6">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7">
+        <v>0.02</v>
+      </c>
+      <c r="D7">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8">
+        <f>(25.3752-25)</f>
+        <v>0.37519999999999953</v>
+      </c>
+      <c r="D8">
+        <f>(25.3756-25)</f>
+        <v>0.3755999999999986</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9">
+        <f>(C4*C5)/(C6*C7*C8)</f>
+        <v>1031.4416418570584</v>
+      </c>
+      <c r="D9">
+        <f>(D4*D5)/(D6*D7*D8)</f>
+        <v>1030.3431949541248</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Properties/Properties_Carbon_PEEK.xlsx
+++ b/Properties/Properties_Carbon_PEEK.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\temp\DirectFE2\CODE\Properties\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5D7422E-ED54-4799-92AE-B5373BB0B459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6426F2F5-4055-407D-BD1C-2D99FDEDF330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="E11 and Poison ratio" sheetId="1" r:id="rId1"/>
     <sheet name="E22 and Poison ratio" sheetId="2" r:id="rId2"/>
     <sheet name="Conductivity" sheetId="3" r:id="rId3"/>
     <sheet name="Specific heat" sheetId="4" r:id="rId4"/>
+    <sheet name="Alpha" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
   <si>
     <t>Direct FE2</t>
   </si>
@@ -114,6 +115,24 @@
   </si>
   <si>
     <t>Cp</t>
+  </si>
+  <si>
+    <t>Alpha</t>
+  </si>
+  <si>
+    <t>displacement (x)</t>
+  </si>
+  <si>
+    <t>RVE 1-2 (Alpha11)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RVE 2-3 (Alpha22) </t>
+  </si>
+  <si>
+    <t>Alpha33</t>
+  </si>
+  <si>
+    <t>distantce</t>
   </si>
 </sst>
 </file>
@@ -744,8 +763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02966E0F-EC2B-4B1F-A909-B0E2D945FBC0}">
   <dimension ref="B3:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -837,4 +856,90 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A6C4864-8894-4EBF-B68F-8CBE1FE56D63}">
+  <dimension ref="B3:D9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4">
+        <f>11.262*10^-2</f>
+        <v>0.11262000000000001</v>
+      </c>
+      <c r="D4">
+        <f>2.235*10^-1</f>
+        <v>0.2235</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5">
+        <v>130</v>
+      </c>
+      <c r="D5">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6">
+        <f>(C4/50)/C5</f>
+        <v>1.7326153846153847E-5</v>
+      </c>
+      <c r="D6">
+        <f>(D4/50)/D5</f>
+        <v>3.4384615384615385E-5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8">
+        <f>9.359*10^-2</f>
+        <v>9.3590000000000007E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9">
+        <f>(C8/20)/D5</f>
+        <v>3.5996153846153853E-5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>